--- a/DOWNLOADS/EDITAIS/U_928529_E_900012025_30-09-2025_09h00m/U_928529_E_900012025_30-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_928529_E_900012025_30-09-2025_09h00m/U_928529_E_900012025_30-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
   <si>
     <t>Nº</t>
   </si>
@@ -320,249 +320,6 @@
   </si>
   <si>
     <t>Equipamento Videoconferência Equipamento Videoconferência Capacidade Zoom: 15X, Resolução Imagem: 30 Fps, Resolução Vídeo: Full Hd 1080p, Tipo Áudio: Modular, Função: Câmera Com Foco Automático, Tensão Operação: 110/220V, Componentes: Camera, Hub De Mesa/Tela, Controle Remoto, Microfo</t>
-  </si>
-  <si>
-    <t>84,05</t>
-  </si>
-  <si>
-    <t>54,54</t>
-  </si>
-  <si>
-    <t>84,54</t>
-  </si>
-  <si>
-    <t>85,29</t>
-  </si>
-  <si>
-    <t>1085,17</t>
-  </si>
-  <si>
-    <t>625,89</t>
-  </si>
-  <si>
-    <t>527,93</t>
-  </si>
-  <si>
-    <t>571,21</t>
-  </si>
-  <si>
-    <t>391,36</t>
-  </si>
-  <si>
-    <t>83,28</t>
-  </si>
-  <si>
-    <t>153,91</t>
-  </si>
-  <si>
-    <t>128,32</t>
-  </si>
-  <si>
-    <t>360,23</t>
-  </si>
-  <si>
-    <t>629,54</t>
-  </si>
-  <si>
-    <t>2976,67</t>
-  </si>
-  <si>
-    <t>552,61</t>
-  </si>
-  <si>
-    <t>50,38</t>
-  </si>
-  <si>
-    <t>70,29</t>
-  </si>
-  <si>
-    <t>1418,38</t>
-  </si>
-  <si>
-    <t>320,44</t>
-  </si>
-  <si>
-    <t>3,88</t>
-  </si>
-  <si>
-    <t>4509,74</t>
-  </si>
-  <si>
-    <t>540,24</t>
-  </si>
-  <si>
-    <t>2010,92</t>
-  </si>
-  <si>
-    <t>2570,01</t>
-  </si>
-  <si>
-    <t>839,35</t>
-  </si>
-  <si>
-    <t>6070,51</t>
-  </si>
-  <si>
-    <t>699,26</t>
-  </si>
-  <si>
-    <t>766,45</t>
-  </si>
-  <si>
-    <t>889,19</t>
-  </si>
-  <si>
-    <t>255,91</t>
-  </si>
-  <si>
-    <t>4384,33</t>
-  </si>
-  <si>
-    <t>5059,84</t>
-  </si>
-  <si>
-    <t>1665,77</t>
-  </si>
-  <si>
-    <t>7722,21</t>
-  </si>
-  <si>
-    <t>2580,75</t>
-  </si>
-  <si>
-    <t>3807,36</t>
-  </si>
-  <si>
-    <t>1342,88</t>
-  </si>
-  <si>
-    <t>3868,33</t>
-  </si>
-  <si>
-    <t>1464,53</t>
-  </si>
-  <si>
-    <t>2510,74</t>
-  </si>
-  <si>
-    <t>5824,64</t>
-  </si>
-  <si>
-    <t>1174,88</t>
-  </si>
-  <si>
-    <t>599,75</t>
-  </si>
-  <si>
-    <t>543,49</t>
-  </si>
-  <si>
-    <t>1919,59</t>
-  </si>
-  <si>
-    <t>22786,99</t>
-  </si>
-  <si>
-    <t>1008,60</t>
-  </si>
-  <si>
-    <t>327,24</t>
-  </si>
-  <si>
-    <t>507,24</t>
-  </si>
-  <si>
-    <t>511,74</t>
-  </si>
-  <si>
-    <t>1877,67</t>
-  </si>
-  <si>
-    <t>1583,79</t>
-  </si>
-  <si>
-    <t>1713,63</t>
-  </si>
-  <si>
-    <t>166,56</t>
-  </si>
-  <si>
-    <t>307,83</t>
-  </si>
-  <si>
-    <t>2566,40</t>
-  </si>
-  <si>
-    <t>5403,45</t>
-  </si>
-  <si>
-    <t>1105,22</t>
-  </si>
-  <si>
-    <t>1007,60</t>
-  </si>
-  <si>
-    <t>702,90</t>
-  </si>
-  <si>
-    <t>2836,76</t>
-  </si>
-  <si>
-    <t>1164,00</t>
-  </si>
-  <si>
-    <t>9019,48</t>
-  </si>
-  <si>
-    <t>1620,72</t>
-  </si>
-  <si>
-    <t>4021,84</t>
-  </si>
-  <si>
-    <t>5140,02</t>
-  </si>
-  <si>
-    <t>1678,70</t>
-  </si>
-  <si>
-    <t>12141,02</t>
-  </si>
-  <si>
-    <t>1398,52</t>
-  </si>
-  <si>
-    <t>1532,90</t>
-  </si>
-  <si>
-    <t>2667,57</t>
-  </si>
-  <si>
-    <t>35418,88</t>
-  </si>
-  <si>
-    <t>3331,54</t>
-  </si>
-  <si>
-    <t>30888,84</t>
-  </si>
-  <si>
-    <t>7742,25</t>
-  </si>
-  <si>
-    <t>11422,08</t>
-  </si>
-  <si>
-    <t>6714,40</t>
-  </si>
-  <si>
-    <t>7736,66</t>
-  </si>
-  <si>
-    <t>20503,42</t>
-  </si>
-  <si>
-    <t>23298,56</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -974,20 +731,17 @@
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
+      <c r="E2">
+        <v>1008.6</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1000,20 +754,17 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
+      <c r="E3">
+        <v>327.24</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1026,20 +777,17 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" t="s">
-        <v>151</v>
+      <c r="E4">
+        <v>507.24</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1052,20 +800,17 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
+      <c r="E5">
+        <v>511.74</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1078,20 +823,20 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>106</v>
+      <c r="D6">
+        <v>1085.17</v>
+      </c>
+      <c r="E6">
+        <v>1085.17</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1104,20 +849,20 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" t="s">
-        <v>153</v>
+      <c r="D7">
+        <v>625.89</v>
+      </c>
+      <c r="E7">
+        <v>1877.67</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1130,20 +875,20 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s">
-        <v>154</v>
+      <c r="D8">
+        <v>527.9299999999999</v>
+      </c>
+      <c r="E8">
+        <v>1583.79</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1156,20 +901,20 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>155</v>
+      <c r="D9">
+        <v>571.21</v>
+      </c>
+      <c r="E9">
+        <v>1713.63</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1182,20 +927,20 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
+      <c r="D10">
+        <v>391.36</v>
+      </c>
+      <c r="E10">
+        <v>391.36</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1208,20 +953,17 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" t="s">
-        <v>156</v>
+      <c r="E11">
+        <v>166.56</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1234,20 +976,17 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>157</v>
+      <c r="E12">
+        <v>307.83</v>
       </c>
       <c r="F12" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1260,20 +999,17 @@
       <c r="C13">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="s">
-        <v>158</v>
+      <c r="E13">
+        <v>2566.4</v>
       </c>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1286,20 +1022,20 @@
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>159</v>
+      <c r="D14">
+        <v>360.23</v>
+      </c>
+      <c r="E14">
+        <v>5403.45</v>
       </c>
       <c r="F14" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H14" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1312,20 +1048,20 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
+      <c r="D15">
+        <v>629.54</v>
+      </c>
+      <c r="E15">
+        <v>629.54</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1338,20 +1074,20 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
+      <c r="D16">
+        <v>2976.67</v>
+      </c>
+      <c r="E16">
+        <v>2976.67</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1364,20 +1100,17 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>160</v>
+      <c r="E17">
+        <v>1105.22</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1390,20 +1123,17 @@
       <c r="C18">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>161</v>
+      <c r="E18">
+        <v>1007.6</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1416,20 +1146,17 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" t="s">
-        <v>162</v>
+      <c r="E19">
+        <v>702.9</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1442,20 +1169,17 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" t="s">
-        <v>163</v>
+      <c r="E20">
+        <v>2836.76</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1468,20 +1192,20 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" t="s">
-        <v>121</v>
+      <c r="D21">
+        <v>320.44</v>
+      </c>
+      <c r="E21">
+        <v>320.44</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1494,20 +1218,17 @@
       <c r="C22">
         <v>300</v>
       </c>
-      <c r="D22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" t="s">
-        <v>164</v>
+      <c r="E22">
+        <v>1164</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1520,20 +1241,17 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>165</v>
+      <c r="E23">
+        <v>9019.48</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1546,20 +1264,20 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" t="s">
-        <v>166</v>
+      <c r="D24">
+        <v>540.24</v>
+      </c>
+      <c r="E24">
+        <v>1620.72</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1572,20 +1290,17 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" t="s">
-        <v>167</v>
+      <c r="E25">
+        <v>4021.84</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1598,20 +1313,17 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
-        <v>168</v>
+      <c r="E26">
+        <v>5140.02</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1624,20 +1336,17 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" t="s">
-        <v>169</v>
+      <c r="E27">
+        <v>1678.7</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1650,20 +1359,17 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>170</v>
+      <c r="E28">
+        <v>12141.02</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1676,20 +1382,17 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>171</v>
+      <c r="E29">
+        <v>1398.52</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1702,20 +1405,17 @@
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" t="s">
-        <v>172</v>
+      <c r="E30">
+        <v>1532.9</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1728,20 +1428,20 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" t="s">
-        <v>173</v>
+      <c r="D31">
+        <v>889.1900000000001</v>
+      </c>
+      <c r="E31">
+        <v>2667.57</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1754,20 +1454,20 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" t="s">
-        <v>132</v>
+      <c r="D32">
+        <v>255.91</v>
+      </c>
+      <c r="E32">
+        <v>255.91</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1780,20 +1480,20 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" t="s">
-        <v>133</v>
+      <c r="D33">
+        <v>4384.33</v>
+      </c>
+      <c r="E33">
+        <v>4384.33</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1806,20 +1506,20 @@
       <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>174</v>
+      <c r="D34">
+        <v>5059.839999999999</v>
+      </c>
+      <c r="E34">
+        <v>35418.88</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1832,20 +1532,17 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" t="s">
-        <v>175</v>
+      <c r="E35">
+        <v>3331.54</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1858,20 +1555,17 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" t="s">
-        <v>176</v>
+      <c r="E36">
+        <v>30888.84</v>
       </c>
       <c r="F36" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1884,20 +1578,20 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" t="s">
-        <v>177</v>
+      <c r="D37">
+        <v>2580.75</v>
+      </c>
+      <c r="E37">
+        <v>7742.25</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1910,20 +1604,20 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" t="s">
-        <v>178</v>
+      <c r="D38">
+        <v>3807.36</v>
+      </c>
+      <c r="E38">
+        <v>11422.08</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1936,20 +1630,20 @@
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" t="s">
-        <v>179</v>
+      <c r="D39">
+        <v>1342.88</v>
+      </c>
+      <c r="E39">
+        <v>6714.4</v>
       </c>
       <c r="F39" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H39" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1962,20 +1656,17 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" t="s">
-        <v>180</v>
+      <c r="E40">
+        <v>7736.66</v>
       </c>
       <c r="F40" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H40" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1988,20 +1679,17 @@
       <c r="C41">
         <v>14</v>
       </c>
-      <c r="D41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" t="s">
-        <v>181</v>
+      <c r="E41">
+        <v>20503.42</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2014,20 +1702,20 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" t="s">
-        <v>142</v>
+      <c r="D42">
+        <v>2510.74</v>
+      </c>
+      <c r="E42">
+        <v>2510.74</v>
       </c>
       <c r="F42" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2040,20 +1728,17 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" t="s">
-        <v>182</v>
+      <c r="E43">
+        <v>23298.56</v>
       </c>
       <c r="F43" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H43" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2066,20 +1751,20 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" t="s">
-        <v>144</v>
+      <c r="D44">
+        <v>1174.88</v>
+      </c>
+      <c r="E44">
+        <v>1174.88</v>
       </c>
       <c r="F44" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H44" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2092,20 +1777,20 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" t="s">
-        <v>145</v>
+      <c r="D45">
+        <v>599.75</v>
+      </c>
+      <c r="E45">
+        <v>599.75</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2118,20 +1803,20 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" t="s">
-        <v>146</v>
+      <c r="D46">
+        <v>543.49</v>
+      </c>
+      <c r="E46">
+        <v>543.49</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2144,20 +1829,20 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" t="s">
-        <v>147</v>
+      <c r="D47">
+        <v>1919.59</v>
+      </c>
+      <c r="E47">
+        <v>1919.59</v>
       </c>
       <c r="F47" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2170,20 +1855,20 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" t="s">
-        <v>148</v>
+      <c r="D48">
+        <v>22786.99</v>
+      </c>
+      <c r="E48">
+        <v>22786.99</v>
       </c>
       <c r="F48" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
